--- a/docs/SBS-Tables.xlsx
+++ b/docs/SBS-Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/sheek-bakrii-saphaloo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7800D759-1931-6444-91F5-89E0BADDA09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78199548-6249-2D4F-B6CC-0A768BD04051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="31180" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3290,7 +3290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3341,6 +3341,11 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Athinkra Sheek Bakrii Saphaloo"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3691,30 +3696,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3754,12 +3735,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3792,6 +3767,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4926,7 +4931,7 @@
   <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="172" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4976,939 +4981,939 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="20" customHeight="1">
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="20" t="s">
         <v>870</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="17">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>848</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="31" t="s">
         <v>853</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="23" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="10" t="s">
         <v>856</v>
       </c>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="10" t="s">
         <v>881</v>
       </c>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" ht="20" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="10" t="s">
         <v>857</v>
       </c>
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" ht="20" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="13" t="s">
         <v>1022</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="10" t="s">
         <v>858</v>
       </c>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" ht="20" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="16" t="s">
         <v>954</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="17" t="s">
         <v>1068</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="10" t="s">
         <v>882</v>
       </c>
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="20" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>1069</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="10" t="s">
         <v>883</v>
       </c>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="20" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="10" t="s">
         <v>884</v>
       </c>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" ht="20" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="13" t="s">
         <v>1024</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="10" t="s">
         <v>885</v>
       </c>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="20" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="10" t="s">
         <v>886</v>
       </c>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" ht="20" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="10" t="s">
         <v>887</v>
       </c>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="20" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="13" t="s">
         <v>1025</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="10" t="s">
         <v>888</v>
       </c>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="20" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="10" t="s">
         <v>889</v>
       </c>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="20" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="10" t="s">
         <v>890</v>
       </c>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:20" ht="20" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="13" t="s">
         <v>1028</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="10" t="s">
         <v>891</v>
       </c>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:20" ht="20" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>1008</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="19" t="s">
+      <c r="R18" s="11" t="s">
         <v>1006</v>
       </c>
       <c r="S18" s="6"/>
@@ -5917,2383 +5922,2383 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="20" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="13" t="s">
         <v>992</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="R19" s="11" t="s">
         <v>1007</v>
       </c>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:20" ht="20" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="17" t="s">
         <v>952</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="10" t="s">
         <v>892</v>
       </c>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:20" ht="20" customHeight="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="13" t="s">
         <v>1032</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="10" t="s">
         <v>893</v>
       </c>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:20" ht="20" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="10" t="s">
         <v>898</v>
       </c>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:20" ht="20" customHeight="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="P23" s="14" t="s">
+      <c r="P23" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="10" t="s">
         <v>899</v>
       </c>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:20" ht="20" customHeight="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="10" t="s">
         <v>900</v>
       </c>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:20" ht="20" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="13" t="s">
         <v>1036</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="10" t="s">
         <v>901</v>
       </c>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:20" ht="20" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="O26" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" s="10" t="s">
         <v>859</v>
       </c>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:20" ht="20" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="R27" s="18" t="s">
+      <c r="R27" s="10" t="s">
         <v>869</v>
       </c>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:20" ht="20" customHeight="1">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="Q28" s="15" t="s">
+      <c r="Q28" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="10" t="s">
         <v>902</v>
       </c>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:20" ht="20" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="10" t="s">
         <v>903</v>
       </c>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:20" ht="20" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="P30" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="10" t="s">
         <v>894</v>
       </c>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:20" ht="20" customHeight="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="P31" s="14" t="s">
+      <c r="P31" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="10" t="s">
         <v>895</v>
       </c>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:20" ht="20" customHeight="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="39" t="s">
         <v>337</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="Q32" s="15" t="s">
+      <c r="Q32" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="10" t="s">
         <v>896</v>
       </c>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="20" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="13" t="s">
         <v>996</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="P33" s="14" t="s">
+      <c r="P33" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="R33" s="10" t="s">
         <v>897</v>
       </c>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="20" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="R34" s="10" t="s">
         <v>904</v>
       </c>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="20" customHeight="1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="40" t="s">
         <v>381</v>
       </c>
-      <c r="P35" s="14" t="s">
+      <c r="P35" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="10" t="s">
         <v>905</v>
       </c>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="20" customHeight="1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="13" t="s">
         <v>1082</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="M36" s="14" t="s">
+      <c r="M36" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="O36" s="40" t="s">
         <v>393</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="40" t="s">
         <v>394</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="10" t="s">
         <v>906</v>
       </c>
       <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" ht="20" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="R37" s="18" t="s">
+      <c r="R37" s="10" t="s">
         <v>907</v>
       </c>
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" ht="20" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="10" t="s">
         <v>908</v>
       </c>
       <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19" ht="20" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="40" t="s">
         <v>429</v>
       </c>
-      <c r="P39" s="14" t="s">
+      <c r="P39" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="R39" s="18" t="s">
+      <c r="R39" s="10" t="s">
         <v>909</v>
       </c>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19" ht="20" customHeight="1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="O40" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="P40" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="10" t="s">
         <v>910</v>
       </c>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19" ht="20" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="M41" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="N41" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="O41" s="14" t="s">
+      <c r="O41" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="P41" s="14" t="s">
+      <c r="P41" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="Q41" s="15" t="s">
+      <c r="Q41" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="R41" s="18" t="s">
+      <c r="R41" s="10" t="s">
         <v>911</v>
       </c>
       <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" ht="20" customHeight="1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="M42" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="O42" s="14" t="s">
+      <c r="O42" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="P42" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="Q42" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="R42" s="18" t="s">
+      <c r="R42" s="10" t="s">
         <v>912</v>
       </c>
       <c r="S42" s="6"/>
     </row>
     <row r="43" spans="1:19" ht="20" customHeight="1">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="M43" s="14" t="s">
+      <c r="M43" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="O43" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="P43" s="14" t="s">
+      <c r="P43" s="40" t="s">
         <v>478</v>
       </c>
-      <c r="Q43" s="15" t="s">
+      <c r="Q43" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="10" t="s">
         <v>913</v>
       </c>
       <c r="S43" s="6"/>
     </row>
     <row r="44" spans="1:19" ht="20" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="40" t="s">
         <v>484</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="M44" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="O44" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="P44" s="14" t="s">
+      <c r="P44" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="10" t="s">
         <v>914</v>
       </c>
       <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19" ht="20" customHeight="1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="L45" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M45" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="P45" s="14" t="s">
+      <c r="P45" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="Q45" s="15" t="s">
+      <c r="Q45" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="R45" s="18" t="s">
+      <c r="R45" s="10" t="s">
         <v>915</v>
       </c>
       <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19" ht="20" customHeight="1">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="L46" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="40" t="s">
         <v>512</v>
       </c>
-      <c r="O46" s="14" t="s">
+      <c r="O46" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="P46" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="Q46" s="15" t="s">
+      <c r="Q46" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="10" t="s">
         <v>916</v>
       </c>
       <c r="S46" s="6"/>
     </row>
     <row r="47" spans="1:19" ht="20" customHeight="1">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L47" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="O47" s="14" t="s">
+      <c r="O47" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="P47" s="14" t="s">
+      <c r="P47" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="R47" s="18" t="s">
+      <c r="R47" s="10" t="s">
         <v>917</v>
       </c>
       <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:19" ht="20" customHeight="1">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="25" t="s">
         <v>975</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="13" t="s">
         <v>967</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="13" t="s">
         <v>1072</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="L48" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="M48" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="N48" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="O48" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="P48" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="Q48" s="41" t="s">
         <v>539</v>
       </c>
-      <c r="R48" s="19" t="s">
+      <c r="R48" s="11" t="s">
         <v>1018</v>
       </c>
       <c r="S48" s="6"/>
     </row>
     <row r="49" spans="1:20" ht="20" customHeight="1">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="13" t="s">
         <v>968</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="13" t="s">
         <v>1073</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="M49" s="40" t="s">
         <v>547</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="N49" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="O49" s="14" t="s">
+      <c r="O49" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="P49" s="14" t="s">
+      <c r="P49" s="40" t="s">
         <v>550</v>
       </c>
-      <c r="Q49" s="15" t="s">
+      <c r="Q49" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="R49" s="19" t="s">
+      <c r="R49" s="11" t="s">
         <v>1019</v>
       </c>
       <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:20" ht="20" customHeight="1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="40" t="s">
         <v>554</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="40" t="s">
         <v>555</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="40" t="s">
         <v>556</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="40" t="s">
         <v>560</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="O50" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="Q50" s="15" t="s">
+      <c r="Q50" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="R50" s="19" t="s">
+      <c r="R50" s="11" t="s">
         <v>918</v>
       </c>
       <c r="S50" s="6"/>
     </row>
     <row r="51" spans="1:20" ht="20" customHeight="1">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="L51" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="M51" s="14" t="s">
+      <c r="M51" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="O51" s="14" t="s">
+      <c r="O51" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="P51" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="Q51" s="15" t="s">
+      <c r="Q51" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="R51" s="19" t="s">
+      <c r="R51" s="11" t="s">
         <v>919</v>
       </c>
       <c r="S51" s="6"/>
     </row>
     <row r="52" spans="1:20" ht="20" customHeight="1">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="13" t="s">
         <v>1076</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="I52" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J52" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="L52" s="14" t="s">
+      <c r="L52" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="M52" s="14" t="s">
+      <c r="M52" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="N52" s="40" t="s">
         <v>584</v>
       </c>
-      <c r="O52" s="14" t="s">
+      <c r="O52" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="P52" s="14" t="s">
+      <c r="P52" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="Q52" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="R52" s="19" t="s">
+      <c r="R52" s="11" t="s">
         <v>920</v>
       </c>
       <c r="S52" s="6"/>
     </row>
     <row r="53" spans="1:20" ht="20" customHeight="1">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="13" t="s">
         <v>979</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="13" t="s">
         <v>1077</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="40" t="s">
         <v>591</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="40" t="s">
         <v>593</v>
       </c>
-      <c r="L53" s="14" t="s">
+      <c r="L53" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="M53" s="14" t="s">
+      <c r="M53" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="N53" s="40" t="s">
         <v>596</v>
       </c>
-      <c r="O53" s="14" t="s">
+      <c r="O53" s="40" t="s">
         <v>597</v>
       </c>
-      <c r="P53" s="14" t="s">
+      <c r="P53" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="Q53" s="15" t="s">
+      <c r="Q53" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="R53" s="19" t="s">
+      <c r="R53" s="11" t="s">
         <v>921</v>
       </c>
       <c r="S53" s="6"/>
     </row>
     <row r="54" spans="1:20" ht="20" customHeight="1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="17" t="s">
         <v>1078</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="38" t="s">
         <v>600</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="40" t="s">
         <v>605</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="L54" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="M54" s="14" t="s">
+      <c r="M54" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="O54" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="P54" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="Q54" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="R54" s="19" t="s">
+      <c r="R54" s="11" t="s">
         <v>922</v>
       </c>
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:20" ht="20" customHeight="1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="40" t="s">
         <v>614</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="40" t="s">
         <v>616</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="L55" s="14" t="s">
+      <c r="L55" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="M55" s="14" t="s">
+      <c r="M55" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="O55" s="14" t="s">
+      <c r="O55" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="P55" s="14" t="s">
+      <c r="P55" s="40" t="s">
         <v>622</v>
       </c>
-      <c r="Q55" s="15" t="s">
+      <c r="Q55" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="R55" s="19" t="s">
+      <c r="R55" s="11" t="s">
         <v>923</v>
       </c>
       <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:20" ht="20" customHeight="1">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="38" t="s">
         <v>624</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="L56" s="14" t="s">
+      <c r="L56" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="M56" s="14" t="s">
+      <c r="M56" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="N56" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="O56" s="14" t="s">
+      <c r="O56" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="P56" s="14" t="s">
+      <c r="P56" s="40" t="s">
         <v>634</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="Q56" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="R56" s="19" t="s">
+      <c r="R56" s="11" t="s">
         <v>924</v>
       </c>
       <c r="S56" s="6"/>
     </row>
     <row r="57" spans="1:20" ht="20" customHeight="1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="13" t="s">
         <v>966</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="13" t="s">
         <v>966</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="13" t="s">
         <v>1081</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="39" t="s">
         <v>637</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="40" t="s">
         <v>638</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="40" t="s">
         <v>639</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="40" t="s">
         <v>641</v>
       </c>
-      <c r="L57" s="14" t="s">
+      <c r="L57" s="40" t="s">
         <v>642</v>
       </c>
-      <c r="M57" s="14" t="s">
+      <c r="M57" s="40" t="s">
         <v>643</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="40" t="s">
         <v>644</v>
       </c>
-      <c r="O57" s="14" t="s">
+      <c r="O57" s="40" t="s">
         <v>645</v>
       </c>
-      <c r="P57" s="14" t="s">
+      <c r="P57" s="40" t="s">
         <v>646</v>
       </c>
-      <c r="Q57" s="15" t="s">
+      <c r="Q57" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="R57" s="19" t="s">
+      <c r="R57" s="11" t="s">
         <v>925</v>
       </c>
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="1:20" ht="20" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="17" t="s">
         <v>1063</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="38" t="s">
         <v>648</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="40" t="s">
         <v>650</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I58" s="40" t="s">
         <v>651</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="40" t="s">
         <v>652</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="40" t="s">
         <v>653</v>
       </c>
-      <c r="L58" s="14" t="s">
+      <c r="L58" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="M58" s="14" t="s">
+      <c r="M58" s="40" t="s">
         <v>655</v>
       </c>
-      <c r="N58" s="14" t="s">
+      <c r="N58" s="40" t="s">
         <v>656</v>
       </c>
-      <c r="O58" s="14" t="s">
+      <c r="O58" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="P58" s="14" t="s">
+      <c r="P58" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="Q58" s="15" t="s">
+      <c r="Q58" s="41" t="s">
         <v>659</v>
       </c>
-      <c r="R58" s="19" t="s">
+      <c r="R58" s="11" t="s">
         <v>926</v>
       </c>
       <c r="S58" s="6"/>
     </row>
     <row r="59" spans="1:20" ht="20" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="13" t="s">
         <v>981</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="40" t="s">
         <v>665</v>
       </c>
-      <c r="L59" s="14" t="s">
+      <c r="L59" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="M59" s="14" t="s">
+      <c r="M59" s="40" t="s">
         <v>667</v>
       </c>
-      <c r="N59" s="14" t="s">
+      <c r="N59" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="O59" s="14" t="s">
+      <c r="O59" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="P59" s="14" t="s">
+      <c r="P59" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="Q59" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="R59" s="19" t="s">
+      <c r="R59" s="11" t="s">
         <v>927</v>
       </c>
       <c r="S59" s="6"/>
     </row>
     <row r="60" spans="1:20" ht="20" customHeight="1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="13" t="s">
         <v>1004</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="13" t="s">
         <v>1012</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="40" t="s">
         <v>675</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="L60" s="14" t="s">
+      <c r="L60" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="M60" s="14" t="s">
+      <c r="M60" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="N60" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="O60" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="P60" s="14" t="s">
+      <c r="P60" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="Q60" s="15" t="s">
+      <c r="Q60" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="R60" s="19" t="s">
+      <c r="R60" s="11" t="s">
         <v>928</v>
       </c>
       <c r="S60" s="6"/>
@@ -8302,170 +8307,170 @@
       </c>
     </row>
     <row r="61" spans="1:20" ht="20" customHeight="1">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="13" t="s">
         <v>1005</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="26"/>
+      <c r="C61" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="13" t="s">
         <v>1012</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="40" t="s">
         <v>687</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="L61" s="14" t="s">
+      <c r="L61" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="M61" s="14" t="s">
+      <c r="M61" s="40" t="s">
         <v>691</v>
       </c>
-      <c r="N61" s="14" t="s">
+      <c r="N61" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="O61" s="14" t="s">
+      <c r="O61" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="P61" s="14" t="s">
+      <c r="P61" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="Q61" s="15" t="s">
+      <c r="Q61" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="R61" s="19" t="s">
+      <c r="R61" s="11" t="s">
         <v>929</v>
       </c>
       <c r="S61" s="6"/>
     </row>
     <row r="62" spans="1:20" ht="20" customHeight="1">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="38" t="s">
         <v>696</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="40" t="s">
         <v>698</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="40" t="s">
         <v>700</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="L62" s="14" t="s">
+      <c r="L62" s="40" t="s">
         <v>702</v>
       </c>
-      <c r="M62" s="14" t="s">
+      <c r="M62" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="P62" s="14" t="s">
+      <c r="P62" s="40" t="s">
         <v>706</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="Q62" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="R62" s="19" t="s">
+      <c r="R62" s="11" t="s">
         <v>930</v>
       </c>
       <c r="S62" s="6"/>
     </row>
     <row r="63" spans="1:20" ht="20" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="L63" s="14" t="s">
+      <c r="L63" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="M63" s="14" t="s">
+      <c r="M63" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="N63" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="O63" s="14" t="s">
+      <c r="O63" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="P63" s="14" t="s">
+      <c r="P63" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="Q63" s="15" t="s">
+      <c r="Q63" s="41" t="s">
         <v>719</v>
       </c>
-      <c r="R63" s="19" t="s">
+      <c r="R63" s="11" t="s">
         <v>931</v>
       </c>
       <c r="S63" s="6"/>
@@ -8474,115 +8479,115 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="20" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="13" t="s">
         <v>1061</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="38" t="s">
         <v>720</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="40" t="s">
         <v>724</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="L64" s="14" t="s">
+      <c r="L64" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="M64" s="14" t="s">
+      <c r="M64" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="N64" s="40" t="s">
         <v>728</v>
       </c>
-      <c r="O64" s="14" t="s">
+      <c r="O64" s="40" t="s">
         <v>729</v>
       </c>
-      <c r="P64" s="14" t="s">
+      <c r="P64" s="40" t="s">
         <v>730</v>
       </c>
-      <c r="Q64" s="15" t="s">
+      <c r="Q64" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="R64" s="19" t="s">
+      <c r="R64" s="11" t="s">
         <v>932</v>
       </c>
       <c r="S64" s="6"/>
     </row>
     <row r="65" spans="1:20" ht="20" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="13" t="s">
         <v>988</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="40" t="s">
         <v>734</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="L65" s="14" t="s">
+      <c r="L65" s="40" t="s">
         <v>738</v>
       </c>
-      <c r="M65" s="14" t="s">
+      <c r="M65" s="40" t="s">
         <v>739</v>
       </c>
-      <c r="N65" s="14" t="s">
+      <c r="N65" s="40" t="s">
         <v>740</v>
       </c>
-      <c r="O65" s="14" t="s">
+      <c r="O65" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="P65" s="14" t="s">
+      <c r="P65" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="Q65" s="41" t="s">
         <v>743</v>
       </c>
-      <c r="R65" s="19" t="s">
+      <c r="R65" s="11" t="s">
         <v>933</v>
       </c>
       <c r="S65" s="6"/>
@@ -8591,56 +8596,56 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="20" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="21" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="13" t="s">
         <v>1086</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="40" t="s">
         <v>747</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="40" t="s">
         <v>748</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="L66" s="40" t="s">
         <v>750</v>
       </c>
-      <c r="M66" s="14" t="s">
+      <c r="M66" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="N66" s="40" t="s">
         <v>752</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="O66" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="P66" s="14" t="s">
+      <c r="P66" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="Q66" s="15" t="s">
+      <c r="Q66" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="R66" s="16" t="s">
+      <c r="R66" s="8" t="s">
         <v>934</v>
       </c>
       <c r="S66" s="6"/>
@@ -8649,114 +8654,114 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="20" customHeight="1">
-      <c r="A67" s="39"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="38" t="s">
         <v>756</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="40" t="s">
         <v>758</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="40" t="s">
         <v>760</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="L67" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="M67" s="14" t="s">
+      <c r="M67" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="N67" s="14" t="s">
+      <c r="N67" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="O67" s="14" t="s">
+      <c r="O67" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="P67" s="14" t="s">
+      <c r="P67" s="40" t="s">
         <v>766</v>
       </c>
-      <c r="Q67" s="15" t="s">
+      <c r="Q67" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="R67" s="16" t="s">
+      <c r="R67" s="8" t="s">
         <v>935</v>
       </c>
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="1:20" ht="20" customHeight="1">
-      <c r="A68" s="39"/>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="13" t="s">
         <v>1057</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="38" t="s">
         <v>768</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="40" t="s">
         <v>771</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="40" t="s">
         <v>772</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="40" t="s">
         <v>773</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="L68" s="40" t="s">
         <v>774</v>
       </c>
-      <c r="M68" s="14" t="s">
+      <c r="M68" s="40" t="s">
         <v>775</v>
       </c>
-      <c r="N68" s="14" t="s">
+      <c r="N68" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="O68" s="14" t="s">
+      <c r="O68" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="P68" s="14" t="s">
+      <c r="P68" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="Q68" s="15" t="s">
+      <c r="Q68" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="R68" s="16" t="s">
+      <c r="R68" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="S68" s="17" t="s">
+      <c r="S68" s="9" t="s">
         <v>937</v>
       </c>
       <c r="T68" s="1" t="s">
@@ -8764,59 +8769,59 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="20" customHeight="1">
-      <c r="A69" s="39"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="13" t="s">
         <v>1058</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="38" t="s">
         <v>780</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="40" t="s">
         <v>783</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="40" t="s">
         <v>784</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="L69" s="14" t="s">
+      <c r="L69" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="M69" s="14" t="s">
+      <c r="M69" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="N69" s="14" t="s">
+      <c r="N69" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="O69" s="14" t="s">
+      <c r="O69" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="P69" s="14" t="s">
+      <c r="P69" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="Q69" s="15" t="s">
+      <c r="Q69" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="R69" s="16" t="s">
+      <c r="R69" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="S69" s="17" t="s">
+      <c r="S69" s="9" t="s">
         <v>939</v>
       </c>
     </row>
